--- a/paradigms/paradigms_excel/paradigms_arm.xlsx
+++ b/paradigms/paradigms_excel/paradigms_arm.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3833">
   <si>
     <t>կ'երգեմ</t>
   </si>
@@ -11531,6 +11531,9 @@
   </si>
   <si>
     <t>-ուլ</t>
+  </si>
+  <si>
+    <t>-ուիլ</t>
   </si>
 </sst>
 </file>
@@ -11861,8 +11864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AU1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:BM1"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12588,10 +12591,10 @@
         <v>3808</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>3808</v>
+        <v>3832</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3808</v>
+        <v>3832</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>3809</v>

--- a/paradigms/paradigms_excel/paradigms_arm.xlsx
+++ b/paradigms/paradigms_excel/paradigms_arm.xlsx
@@ -11446,12 +11446,6 @@
     <t>Orthographic variant with affricate</t>
   </si>
   <si>
-    <t>V-initial</t>
-  </si>
-  <si>
-    <t>C-initial</t>
-  </si>
-  <si>
     <t>Short form</t>
   </si>
   <si>
@@ -11534,6 +11528,12 @@
   </si>
   <si>
     <t>-ուիլ</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -11865,7 +11865,7 @@
   <dimension ref="A1:BN87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12277,199 +12277,199 @@
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>3803</v>
+        <v>3831</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>3804</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="4" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12501,28 +12501,28 @@
         <v>3802</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="5" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12576,199 +12576,199 @@
     </row>
     <row r="6" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>3830</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>3830</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>3807</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>3807</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>3808</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>3808</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>3832</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3832</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>3809</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>3809</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>3831</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>3831</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>3810</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>3810</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="V6" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="AM6" s="3" t="s">
         <v>3821</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>3822</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>3822</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>3812</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>3812</v>
-      </c>
-      <c r="V6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AV6" s="3" t="s">
         <v>3813</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="AW6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BF6" s="3" t="s">
         <v>3813</v>
       </c>
-      <c r="X6" s="3" t="s">
-        <v>3814</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>3814</v>
-      </c>
-      <c r="Z6" s="3" t="s">
+      <c r="BG6" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="BH6" s="3" t="s">
         <v>3813</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AE6" s="3" t="s">
+      <c r="BI6" s="3" t="s">
         <v>3807</v>
       </c>
-      <c r="AF6" s="3" t="s">
-        <v>3812</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>3816</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>3808</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>3819</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>3823</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AR6" s="3" t="s">
+      <c r="BJ6" s="3" t="s">
         <v>3807</v>
       </c>
-      <c r="AS6" s="3" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>3808</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>3807</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>3808</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>3808</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>3807</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>3807</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>3815</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>3815</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>3809</v>
-      </c>
-      <c r="BJ6" s="3" t="s">
-        <v>3809</v>
-      </c>
       <c r="BK6" s="3" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
@@ -13009,10 +13009,10 @@
         <v>689</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>744</v>
@@ -13159,7 +13159,7 @@
         <v>3195</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="BM8" s="2" t="s">
         <v>3323</v>

--- a/paradigms/paradigms_excel/paradigms_arm.xlsx
+++ b/paradigms/paradigms_excel/paradigms_arm.xlsx
@@ -11041,9 +11041,6 @@
     <t>Passive</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>E-Class</t>
   </si>
   <si>
@@ -11534,6 +11531,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Regular category</t>
   </si>
 </sst>
 </file>
@@ -11856,7 +11856,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11966,7 +11966,7 @@
         <v>1628</v>
       </c>
       <c r="AF1" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="AG1" t="s">
         <v>1780</v>
@@ -12023,7 +12023,7 @@
         <v>2546</v>
       </c>
       <c r="AY1" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="AZ1" t="s">
         <v>2608</v>
@@ -12073,10 +12073,10 @@
         <v>3666</v>
       </c>
       <c r="D2" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="E2" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="F2" t="s">
         <v>3667</v>
@@ -12085,40 +12085,40 @@
         <v>3667</v>
       </c>
       <c r="L2" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="M2" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="N2" t="s">
+        <v>3800</v>
+      </c>
+      <c r="O2" t="s">
         <v>3801</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Z2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3822</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3822</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3822</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="AH2" t="s">
         <v>3802</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>3822</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3823</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3822</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>3823</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>3822</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>3823</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>3803</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
@@ -12320,216 +12320,216 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="B4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C4" t="s">
         <v>3831</v>
       </c>
-      <c r="C4" t="s">
-        <v>3832</v>
-      </c>
       <c r="D4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="E4" t="s">
         <v>3831</v>
       </c>
-      <c r="E4" t="s">
-        <v>3832</v>
-      </c>
       <c r="F4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="G4" t="s">
         <v>3831</v>
       </c>
-      <c r="G4" t="s">
-        <v>3832</v>
-      </c>
       <c r="H4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="I4" t="s">
         <v>3831</v>
       </c>
-      <c r="I4" t="s">
-        <v>3832</v>
-      </c>
       <c r="J4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="K4" t="s">
         <v>3831</v>
       </c>
-      <c r="K4" t="s">
-        <v>3832</v>
-      </c>
       <c r="L4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="M4" t="s">
         <v>3831</v>
       </c>
-      <c r="M4" t="s">
-        <v>3832</v>
-      </c>
       <c r="N4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="O4" t="s">
         <v>3831</v>
       </c>
-      <c r="O4" t="s">
-        <v>3832</v>
-      </c>
       <c r="P4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="Q4" t="s">
         <v>3831</v>
       </c>
-      <c r="Q4" t="s">
-        <v>3832</v>
-      </c>
       <c r="R4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="S4" t="s">
         <v>3831</v>
       </c>
-      <c r="S4" t="s">
-        <v>3832</v>
-      </c>
       <c r="T4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="U4" t="s">
         <v>3831</v>
       </c>
-      <c r="U4" t="s">
-        <v>3832</v>
-      </c>
       <c r="V4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="W4" t="s">
         <v>3831</v>
       </c>
-      <c r="W4" t="s">
-        <v>3832</v>
-      </c>
       <c r="X4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="Y4" t="s">
         <v>3831</v>
       </c>
-      <c r="Y4" t="s">
-        <v>3832</v>
-      </c>
       <c r="Z4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AB4" t="s">
         <v>3831</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>3831</v>
       </c>
-      <c r="AB4" t="s">
-        <v>3832</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>3832</v>
-      </c>
       <c r="AD4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AF4" t="s">
         <v>3831</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>3831</v>
       </c>
-      <c r="AF4" t="s">
-        <v>3832</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>3832</v>
-      </c>
       <c r="AH4" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="AI4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AK4" t="s">
         <v>3831</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>3831</v>
       </c>
-      <c r="AK4" t="s">
-        <v>3832</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>3832</v>
-      </c>
       <c r="AM4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AO4" t="s">
         <v>3831</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>3831</v>
       </c>
-      <c r="AO4" t="s">
-        <v>3832</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>3832</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="AR4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AS4" t="s">
         <v>3831</v>
       </c>
-      <c r="AS4" t="s">
-        <v>3832</v>
-      </c>
       <c r="AT4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AU4" t="s">
         <v>3831</v>
       </c>
-      <c r="AU4" t="s">
-        <v>3832</v>
-      </c>
       <c r="AV4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="AW4" t="s">
         <v>3831</v>
       </c>
-      <c r="AW4" t="s">
-        <v>3832</v>
-      </c>
       <c r="AX4" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="AY4" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="AZ4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="BA4" t="s">
         <v>3831</v>
       </c>
-      <c r="BA4" t="s">
-        <v>3832</v>
-      </c>
       <c r="BB4" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="BC4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="BF4" t="s">
         <v>3831</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="BH4" t="s">
         <v>3831</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BI4" t="s">
         <v>3831</v>
       </c>
-      <c r="BF4" t="s">
-        <v>3832</v>
-      </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>3831</v>
       </c>
-      <c r="BH4" t="s">
-        <v>3832</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>3832</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>3832</v>
-      </c>
       <c r="BK4" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="BL4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="BM4" t="s">
         <v>3831</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>3832</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B5" t="s">
         <v>3668</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D5" t="s">
         <v>3669</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>3669</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3670</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3670</v>
       </c>
       <c r="F5" t="s">
         <v>3667</v>
@@ -12538,225 +12538,225 @@
         <v>3667</v>
       </c>
       <c r="H5" t="s">
+        <v>3670</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L5" t="s">
         <v>3671</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>3671</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
+        <v>3671</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3671</v>
+      </c>
+      <c r="V5" t="s">
         <v>3672</v>
       </c>
-      <c r="M5" t="s">
+      <c r="W5" t="s">
         <v>3672</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3672</v>
-      </c>
-      <c r="O5" t="s">
-        <v>3672</v>
-      </c>
-      <c r="V5" t="s">
-        <v>3673</v>
-      </c>
-      <c r="W5" t="s">
-        <v>3673</v>
       </c>
     </row>
     <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3829</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>3828</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>3818</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>3817</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>3819</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>3819</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>3805</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
+        <v>3814</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>3815</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>3816</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>3820</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AY6" s="2" t="s">
         <v>3805</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>3806</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="BA6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="BG6" s="2" t="s">
         <v>3806</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>3830</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>3830</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>3829</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>3829</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>3808</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>3808</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>3818</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>3820</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>3820</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="X6" s="2" t="s">
+      <c r="BH6" s="2" t="s">
         <v>3812</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>3813</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>3813</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AE6" s="2" t="s">
+      <c r="BI6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BK6" s="2" t="s">
         <v>3805</v>
       </c>
-      <c r="AF6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>3814</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>3816</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>3821</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AR6" s="2" t="s">
+      <c r="BL6" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BM6" s="2" t="s">
         <v>3805</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>3813</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>3813</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>3813</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BM6" s="2" t="s">
-        <v>3806</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
@@ -12800,10 +12800,10 @@
         <v>670</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>725</v>
@@ -12997,10 +12997,10 @@
         <v>689</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>3824</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>3825</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>744</v>
@@ -13147,7 +13147,7 @@
         <v>3195</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="BM8" s="1" t="s">
         <v>3323</v>
@@ -13194,10 +13194,10 @@
         <v>660</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>741</v>
@@ -13375,10 +13375,10 @@
         <v>671</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>726</v>
@@ -13562,10 +13562,10 @@
         <v>661</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>743</v>
@@ -13747,10 +13747,10 @@
         <v>669</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>742</v>
@@ -13932,10 +13932,10 @@
         <v>664</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>746</v>
@@ -14117,10 +14117,10 @@
         <v>663</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>745</v>
@@ -14302,10 +14302,10 @@
         <v>667</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>749</v>
@@ -14487,10 +14487,10 @@
         <v>666</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>748</v>
@@ -14672,10 +14672,10 @@
         <v>665</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>747</v>
@@ -14857,10 +14857,10 @@
         <v>662</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>744</v>
@@ -15042,10 +15042,10 @@
         <v>630</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>695</v>
@@ -15235,10 +15235,10 @@
         <v>629</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>694</v>
@@ -15428,10 +15428,10 @@
         <v>632</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>697</v>
@@ -15621,10 +15621,10 @@
         <v>631</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>696</v>
@@ -15814,10 +15814,10 @@
         <v>633</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>698</v>
@@ -16007,10 +16007,10 @@
         <v>634</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>699</v>
@@ -16200,10 +16200,10 @@
         <v>626</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>691</v>
@@ -16395,10 +16395,10 @@
         <v>625</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>690</v>
@@ -16590,10 +16590,10 @@
         <v>635</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>700</v>
@@ -16785,10 +16785,10 @@
         <v>627</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>692</v>
@@ -16980,10 +16980,10 @@
         <v>628</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>693</v>
@@ -17175,10 +17175,10 @@
         <v>636</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>701</v>
@@ -17370,10 +17370,10 @@
         <v>670</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>725</v>
@@ -17557,10 +17557,10 @@
         <v>644</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>702</v>
@@ -17744,10 +17744,10 @@
         <v>639</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>720</v>
@@ -17929,10 +17929,10 @@
         <v>638</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>719</v>
@@ -18114,10 +18114,10 @@
         <v>642</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>723</v>
@@ -18299,10 +18299,10 @@
         <v>641</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>722</v>
@@ -18484,10 +18484,10 @@
         <v>640</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>721</v>
@@ -18669,10 +18669,10 @@
         <v>637</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>718</v>
@@ -21098,10 +21098,10 @@
         <v>645</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>703</v>
@@ -21285,10 +21285,10 @@
         <v>643</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>724</v>
@@ -21470,10 +21470,10 @@
         <v>646</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>704</v>
@@ -21660,7 +21660,7 @@
         <v>903</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>717</v>
@@ -21838,10 +21838,10 @@
         <v>652</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>710</v>
@@ -22027,10 +22027,10 @@
         <v>651</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>709</v>
@@ -22216,10 +22216,10 @@
         <v>654</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>712</v>
@@ -22405,10 +22405,10 @@
         <v>653</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>711</v>
@@ -22594,10 +22594,10 @@
         <v>655</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>713</v>
@@ -22783,10 +22783,10 @@
         <v>656</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>714</v>
@@ -22972,10 +22972,10 @@
         <v>648</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>706</v>
@@ -23161,10 +23161,10 @@
         <v>647</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>705</v>
@@ -23350,10 +23350,10 @@
         <v>657</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>715</v>
@@ -23539,10 +23539,10 @@
         <v>649</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>707</v>
@@ -23728,10 +23728,10 @@
         <v>650</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>708</v>
@@ -23917,10 +23917,10 @@
         <v>658</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>716</v>
@@ -24109,7 +24109,7 @@
         <v>911</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>741</v>
@@ -24289,10 +24289,10 @@
         <v>668</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>750</v>
@@ -24477,7 +24477,7 @@
         <v>911</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>741</v>
@@ -24661,10 +24661,10 @@
         <v>684</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -24837,7 +24837,7 @@
         <v>911</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -25007,10 +25007,10 @@
         <v>672</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>727</v>
@@ -25197,7 +25197,7 @@
         <v>928</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>740</v>
@@ -25375,10 +25375,10 @@
         <v>679</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>733</v>
@@ -25564,10 +25564,10 @@
         <v>678</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>732</v>
@@ -25753,10 +25753,10 @@
         <v>681</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>735</v>
@@ -25942,10 +25942,10 @@
         <v>682</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>736</v>
@@ -26131,10 +26131,10 @@
         <v>680</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>734</v>
@@ -26320,10 +26320,10 @@
         <v>683</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>737</v>
@@ -26509,10 +26509,10 @@
         <v>675</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>729</v>
@@ -26698,10 +26698,10 @@
         <v>674</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>728</v>
@@ -26887,10 +26887,10 @@
         <v>684</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>738</v>
@@ -27076,10 +27076,10 @@
         <v>676</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>730</v>
@@ -27265,10 +27265,10 @@
         <v>677</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>731</v>
@@ -27454,10 +27454,10 @@
         <v>685</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>739</v>
@@ -27631,10 +27631,10 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>

--- a/paradigms/paradigms_excel/paradigms_arm.xlsx
+++ b/paradigms/paradigms_excel/paradigms_arm.xlsx
@@ -11856,7 +11856,7 @@
   <dimension ref="A1:BM87"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12562,595 +12562,595 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3827</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3829</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>3829</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>3828</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>3828</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>3818</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>3808</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>3808</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>3813</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>3814</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>3816</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>3820</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BM6" s="2" t="s">
-        <v>3805</v>
+        <v>3575</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>3298</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>3693</v>
+        <v>3823</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>3737</v>
+        <v>3824</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>914</v>
+        <v>939</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>980</v>
+        <v>1005</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>1060</v>
+        <v>1069</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1119</v>
+        <v>1199</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>1232</v>
+        <v>1309</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>1376</v>
+        <v>1418</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>1373</v>
+        <v>1418</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>1508</v>
+        <v>1524</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>1454</v>
+        <v>1524</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>1613</v>
+        <v>3577</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1587</v>
+        <v>3577</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>1667</v>
+        <v>1736</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>1757</v>
+        <v>1781</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>1850</v>
+        <v>1863</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>1871</v>
+        <v>1920</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>1897</v>
+        <v>1922</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>128</v>
+        <v>1974</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>151</v>
+        <v>3665</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>2021</v>
+        <v>2037</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>2073</v>
+        <v>3578</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>2135</v>
+        <v>2162</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>2199</v>
+        <v>2287</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>2260</v>
+        <v>2288</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>2324</v>
+        <v>2354</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>3611</v>
+        <v>2355</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>2392</v>
+        <v>2418</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>2456</v>
+        <v>2482</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>2519</v>
+        <v>2545</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>1721</v>
+        <v>1736</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>2582</v>
+        <v>3640</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>2654</v>
+        <v>2671</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>2711</v>
+        <v>2736</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>2768</v>
+        <v>2785</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>2821</v>
+        <v>2849</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>2885</v>
+        <v>2912</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>2943</v>
+        <v>3399</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>3000</v>
+        <v>3027</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>3059</v>
+        <v>3081</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>426</v>
+        <v>3082</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>3129</v>
+        <v>3145</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>3177</v>
+        <v>3195</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>3231</v>
+        <v>3825</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>3298</v>
+        <v>3323</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3576</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3511</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>3823</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>3824</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>3577</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>3577</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>1920</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>1922</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>3665</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>2037</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>3578</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>2287</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>2355</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>2418</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>2482</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>2545</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>3640</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>2671</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>2785</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>2849</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>3399</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>3081</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>3082</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>3145</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>3195</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>3825</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>3323</v>
+        <v>3827</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3829</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>3818</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>3817</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>3819</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>3819</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>3814</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>3815</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>3816</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>3820</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>3805</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">

--- a/paradigms/paradigms_excel/paradigms_arm.xlsx
+++ b/paradigms/paradigms_excel/paradigms_arm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/ArmenianVerbs/paradigms/paradigms_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding and data/ArmenianVerbs/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11855,8 +11855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12258,7 +12258,7 @@
         <v>3324</v>
       </c>
       <c r="AT3" t="s">
-        <v>3324</v>
+        <v>3397</v>
       </c>
       <c r="AU3" t="s">
         <v>3397</v>

--- a/paradigms/paradigms_excel/paradigms_arm.xlsx
+++ b/paradigms/paradigms_excel/paradigms_arm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="460" windowWidth="21100" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26120" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="3832">
   <si>
     <t>կ'երգեմ</t>
   </si>
@@ -9266,9 +9266,6 @@
   </si>
   <si>
     <t>խածեր</t>
-  </si>
-  <si>
-    <t>խածէք</t>
   </si>
   <si>
     <t>խածէ՛ք</t>
@@ -11855,8 +11852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AP29" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BH72" sqref="BH72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11873,7 +11870,7 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
@@ -11966,7 +11963,7 @@
         <v>1628</v>
       </c>
       <c r="AF1" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="AG1" t="s">
         <v>1780</v>
@@ -12023,7 +12020,7 @@
         <v>2546</v>
       </c>
       <c r="AY1" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="AZ1" t="s">
         <v>2608</v>
@@ -12053,518 +12050,518 @@
         <v>3028</v>
       </c>
       <c r="BI1" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="BJ1" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="BK1" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="BL1" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="BM1" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3672</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F2" t="s">
         <v>3666</v>
       </c>
-      <c r="D2" t="s">
-        <v>3673</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3673</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3667</v>
-      </c>
       <c r="G2" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="L2" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="M2" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="N2" t="s">
+        <v>3799</v>
+      </c>
+      <c r="O2" t="s">
         <v>3800</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Z2" t="s">
+        <v>3820</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3820</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3820</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3821</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>3802</v>
+      </c>
+      <c r="AH2" t="s">
         <v>3801</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>3821</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3822</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3821</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>3822</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>3821</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>3822</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>3803</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>3802</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="C3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="E3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="F3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="G3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="H3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="I3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="J3" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="K3" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="L3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="M3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="N3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="O3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="P3" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="Q3" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="R3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="S3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="T3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3397</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3397</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AD3" t="s">
         <v>3396</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AE3" t="s">
         <v>3396</v>
       </c>
-      <c r="V3" t="s">
-        <v>3398</v>
-      </c>
-      <c r="W3" t="s">
-        <v>3398</v>
-      </c>
-      <c r="X3" t="s">
-        <v>3400</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3400</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>3397</v>
-      </c>
       <c r="AF3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="AG3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AN3" t="s">
         <v>3396</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AO3" t="s">
         <v>3396</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AP3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>3396</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AR3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AT3" t="s">
         <v>3396</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AU3" t="s">
         <v>3396</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AV3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="AW3" t="s">
         <v>3396</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AX3" t="s">
         <v>3396</v>
       </c>
-      <c r="AN3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>3397</v>
-      </c>
       <c r="AY3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="AZ3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="BA3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="BB3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="BC3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="BD3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="BE3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="BF3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="BG3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="BH3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="BI3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="BJ3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="BK3" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="BL3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="BM3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="B4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="C4" t="s">
         <v>3830</v>
       </c>
-      <c r="C4" t="s">
-        <v>3831</v>
-      </c>
       <c r="D4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E4" t="s">
         <v>3830</v>
       </c>
-      <c r="E4" t="s">
-        <v>3831</v>
-      </c>
       <c r="F4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G4" t="s">
         <v>3830</v>
       </c>
-      <c r="G4" t="s">
-        <v>3831</v>
-      </c>
       <c r="H4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="I4" t="s">
         <v>3830</v>
       </c>
-      <c r="I4" t="s">
-        <v>3831</v>
-      </c>
       <c r="J4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="K4" t="s">
         <v>3830</v>
       </c>
-      <c r="K4" t="s">
-        <v>3831</v>
-      </c>
       <c r="L4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="M4" t="s">
         <v>3830</v>
       </c>
-      <c r="M4" t="s">
-        <v>3831</v>
-      </c>
       <c r="N4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="O4" t="s">
         <v>3830</v>
       </c>
-      <c r="O4" t="s">
-        <v>3831</v>
-      </c>
       <c r="P4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="Q4" t="s">
         <v>3830</v>
       </c>
-      <c r="Q4" t="s">
-        <v>3831</v>
-      </c>
       <c r="R4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="S4" t="s">
         <v>3830</v>
       </c>
-      <c r="S4" t="s">
-        <v>3831</v>
-      </c>
       <c r="T4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="U4" t="s">
         <v>3830</v>
       </c>
-      <c r="U4" t="s">
-        <v>3831</v>
-      </c>
       <c r="V4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="W4" t="s">
         <v>3830</v>
       </c>
-      <c r="W4" t="s">
-        <v>3831</v>
-      </c>
       <c r="X4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="Y4" t="s">
         <v>3830</v>
       </c>
-      <c r="Y4" t="s">
-        <v>3831</v>
-      </c>
       <c r="Z4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AB4" t="s">
         <v>3830</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>3830</v>
       </c>
-      <c r="AB4" t="s">
-        <v>3831</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>3831</v>
-      </c>
       <c r="AD4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AF4" t="s">
         <v>3830</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>3830</v>
       </c>
-      <c r="AF4" t="s">
-        <v>3831</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>3831</v>
-      </c>
       <c r="AH4" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="AI4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AK4" t="s">
         <v>3830</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>3830</v>
       </c>
-      <c r="AK4" t="s">
-        <v>3831</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>3831</v>
-      </c>
       <c r="AM4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AO4" t="s">
         <v>3830</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>3830</v>
       </c>
-      <c r="AO4" t="s">
-        <v>3831</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>3831</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="AR4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AS4" t="s">
         <v>3830</v>
       </c>
-      <c r="AS4" t="s">
-        <v>3831</v>
-      </c>
       <c r="AT4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AU4" t="s">
         <v>3830</v>
       </c>
-      <c r="AU4" t="s">
-        <v>3831</v>
-      </c>
       <c r="AV4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="AW4" t="s">
         <v>3830</v>
       </c>
-      <c r="AW4" t="s">
-        <v>3831</v>
-      </c>
       <c r="AX4" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="AY4" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="AZ4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="BA4" t="s">
         <v>3830</v>
       </c>
-      <c r="BA4" t="s">
-        <v>3831</v>
-      </c>
       <c r="BB4" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="BC4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="BF4" t="s">
         <v>3830</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="BH4" t="s">
         <v>3830</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BI4" t="s">
         <v>3830</v>
       </c>
-      <c r="BF4" t="s">
-        <v>3831</v>
-      </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>3830</v>
       </c>
-      <c r="BH4" t="s">
-        <v>3831</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>3831</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>3831</v>
-      </c>
       <c r="BK4" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="BL4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="BM4" t="s">
         <v>3830</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>3831</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="B5" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3667</v>
+      </c>
+      <c r="D5" t="s">
         <v>3668</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>3668</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>3666</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3666</v>
+      </c>
+      <c r="H5" t="s">
         <v>3669</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>3669</v>
       </c>
-      <c r="F5" t="s">
-        <v>3667</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3667</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>3670</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>3670</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
+        <v>3670</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3670</v>
+      </c>
+      <c r="V5" t="s">
         <v>3671</v>
       </c>
-      <c r="M5" t="s">
+      <c r="W5" t="s">
         <v>3671</v>
-      </c>
-      <c r="N5" t="s">
-        <v>3671</v>
-      </c>
-      <c r="O5" t="s">
-        <v>3671</v>
-      </c>
-      <c r="V5" t="s">
-        <v>3672</v>
-      </c>
-      <c r="W5" t="s">
-        <v>3672</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
@@ -12579,7 +12576,7 @@
         <v>318</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>859</v>
@@ -12603,10 +12600,10 @@
         <v>670</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>725</v>
@@ -12702,7 +12699,7 @@
         <v>2324</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="AV6" s="1" t="s">
         <v>2392</v>
@@ -12747,21 +12744,21 @@
         <v>426</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>64</v>
@@ -12776,7 +12773,7 @@
         <v>335</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>875</v>
@@ -12800,10 +12797,10 @@
         <v>689</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>3823</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>3824</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>744</v>
@@ -12848,10 +12845,10 @@
         <v>1524</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>1736</v>
@@ -12878,13 +12875,13 @@
         <v>1974</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>2037</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>2162</v>
@@ -12914,7 +12911,7 @@
         <v>1736</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>2671</v>
@@ -12932,225 +12929,225 @@
         <v>2912</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>3027</v>
       </c>
       <c r="BH7" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="BI7" s="1" t="s">
         <v>3081</v>
       </c>
-      <c r="BI7" s="1" t="s">
-        <v>3082</v>
-      </c>
       <c r="BJ7" s="1" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3828</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>3827</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>3827</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>3806</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>3817</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>3816</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>3818</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>3818</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>3807</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>3810</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>3808</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>3812</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>3804</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>3814</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>3815</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>3819</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="AY8" s="2" t="s">
         <v>3804</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>3805</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="BA8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>3804</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>3811</v>
+      </c>
+      <c r="BG8" s="2" t="s">
         <v>3805</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>3829</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>3829</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>3828</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>3828</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>3807</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>3818</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>3817</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>3808</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>3808</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="X8" s="2" t="s">
+      <c r="BH8" s="2" t="s">
         <v>3811</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>3811</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AE8" s="2" t="s">
+      <c r="BI8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>3805</v>
+      </c>
+      <c r="BK8" s="2" t="s">
         <v>3804</v>
       </c>
-      <c r="AF8" s="2" t="s">
-        <v>3809</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>3810</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>3813</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>3814</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>3816</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>3820</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AR8" s="2" t="s">
+      <c r="BL8" s="2" t="s">
+        <v>3803</v>
+      </c>
+      <c r="BM8" s="2" t="s">
         <v>3804</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BH8" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="BI8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
-        <v>3806</v>
-      </c>
-      <c r="BK8" s="2" t="s">
-        <v>3805</v>
-      </c>
-      <c r="BL8" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="BM8" s="2" t="s">
-        <v>3805</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
@@ -13170,7 +13167,7 @@
         <v>308</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>849</v>
@@ -13182,10 +13179,10 @@
         <v>481</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>595</v>
@@ -13194,10 +13191,10 @@
         <v>660</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>741</v>
@@ -13274,7 +13271,7 @@
         <v>2263</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>2341</v>
@@ -13322,16 +13319,16 @@
         <v>441</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
@@ -13351,7 +13348,7 @@
         <v>316</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>857</v>
@@ -13375,10 +13372,10 @@
         <v>671</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>726</v>
@@ -13464,7 +13461,7 @@
         <v>2325</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="AV10" s="1" t="s">
         <v>2393</v>
@@ -13509,16 +13506,16 @@
         <v>427</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="BK10" s="1" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.2">
@@ -13538,7 +13535,7 @@
         <v>309</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>850</v>
@@ -13550,10 +13547,10 @@
         <v>482</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>596</v>
@@ -13562,10 +13559,10 @@
         <v>661</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>743</v>
@@ -13646,7 +13643,7 @@
         <v>2276</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>2343</v>
@@ -13688,22 +13685,22 @@
         <v>3017</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="BK11" s="1" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.2">
@@ -13717,16 +13714,16 @@
         <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>3330</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>3331</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>3515</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>3332</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>410</v>
@@ -13735,10 +13732,10 @@
         <v>491</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>604</v>
@@ -13747,10 +13744,10 @@
         <v>669</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>742</v>
@@ -13765,7 +13762,7 @@
         <v>996</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>1070</v>
@@ -13780,7 +13777,7 @@
         <v>1234</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>1406</v>
@@ -13795,13 +13792,13 @@
         <v>1472</v>
       </c>
       <c r="AD12" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AF12" s="1" t="s">
         <v>3326</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>3326</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>3327</v>
       </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1" t="s">
@@ -13831,7 +13828,7 @@
         <v>2259</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="AU12" s="1" t="s">
         <v>2342</v>
@@ -13846,7 +13843,7 @@
         <v>2518</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="AZ12" s="1" t="s">
         <v>2606</v>
@@ -13855,10 +13852,10 @@
         <v>2644</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="BD12" s="1" t="s">
         <v>2838</v>
@@ -13867,28 +13864,28 @@
         <v>2893</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="BG12" s="1" t="s">
         <v>3016</v>
       </c>
       <c r="BH12" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="BI12" s="1" t="s">
         <v>3335</v>
       </c>
-      <c r="BI12" s="1" t="s">
-        <v>3336</v>
-      </c>
       <c r="BJ12" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="BK12" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="BK12" s="1" t="s">
-        <v>3340</v>
-      </c>
       <c r="BL12" s="1" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.2">
@@ -13908,7 +13905,7 @@
         <v>312</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>853</v>
@@ -13923,7 +13920,7 @@
         <v>519</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>599</v>
@@ -13932,10 +13929,10 @@
         <v>664</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>746</v>
@@ -14016,7 +14013,7 @@
         <v>2279</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="AU13" s="1" t="s">
         <v>2346</v>
@@ -14043,7 +14040,7 @@
         <v>2728</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="BD13" s="1" t="s">
         <v>2843</v>
@@ -14052,28 +14049,28 @@
         <v>2905</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>3020</v>
       </c>
       <c r="BH13" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="BI13" s="1" t="s">
         <v>3347</v>
       </c>
-      <c r="BI13" s="1" t="s">
+      <c r="BJ13" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="BK13" s="1" t="s">
         <v>3348</v>
       </c>
-      <c r="BJ13" s="1" t="s">
-        <v>3123</v>
-      </c>
-      <c r="BK13" s="1" t="s">
-        <v>3349</v>
-      </c>
       <c r="BL13" s="1" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.2">
@@ -14093,7 +14090,7 @@
         <v>311</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>852</v>
@@ -14108,7 +14105,7 @@
         <v>518</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>598</v>
@@ -14117,10 +14114,10 @@
         <v>663</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>745</v>
@@ -14201,7 +14198,7 @@
         <v>2278</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="AU14" s="1" t="s">
         <v>2345</v>
@@ -14228,7 +14225,7 @@
         <v>2727</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="BD14" s="1" t="s">
         <v>2842</v>
@@ -14237,28 +14234,28 @@
         <v>2904</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="BG14" s="1" t="s">
         <v>3019</v>
       </c>
       <c r="BH14" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="BI14" s="1" t="s">
         <v>3352</v>
       </c>
-      <c r="BI14" s="1" t="s">
+      <c r="BJ14" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="BK14" s="1" t="s">
         <v>3353</v>
       </c>
-      <c r="BJ14" s="1" t="s">
-        <v>3122</v>
-      </c>
-      <c r="BK14" s="1" t="s">
-        <v>3354</v>
-      </c>
       <c r="BL14" s="1" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.2">
@@ -14278,7 +14275,7 @@
         <v>315</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>856</v>
@@ -14293,7 +14290,7 @@
         <v>522</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>602</v>
@@ -14302,10 +14299,10 @@
         <v>667</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>749</v>
@@ -14386,7 +14383,7 @@
         <v>2282</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="AU15" s="1" t="s">
         <v>2349</v>
@@ -14413,7 +14410,7 @@
         <v>2731</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="BD15" s="1" t="s">
         <v>2846</v>
@@ -14422,28 +14419,28 @@
         <v>2908</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="BG15" s="1" t="s">
         <v>3023</v>
       </c>
       <c r="BH15" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="BI15" s="1" t="s">
         <v>3357</v>
       </c>
-      <c r="BI15" s="1" t="s">
+      <c r="BJ15" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="BK15" s="1" t="s">
         <v>3358</v>
       </c>
-      <c r="BJ15" s="1" t="s">
-        <v>3126</v>
-      </c>
-      <c r="BK15" s="1" t="s">
-        <v>3359</v>
-      </c>
       <c r="BL15" s="1" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.2">
@@ -14463,7 +14460,7 @@
         <v>314</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>855</v>
@@ -14478,7 +14475,7 @@
         <v>521</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>601</v>
@@ -14487,10 +14484,10 @@
         <v>666</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>748</v>
@@ -14571,7 +14568,7 @@
         <v>2281</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="AU16" s="1" t="s">
         <v>2348</v>
@@ -14598,7 +14595,7 @@
         <v>2730</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="BD16" s="1" t="s">
         <v>2845</v>
@@ -14607,28 +14604,28 @@
         <v>2907</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="BG16" s="1" t="s">
         <v>3022</v>
       </c>
       <c r="BH16" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="BI16" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="BI16" s="1" t="s">
+      <c r="BJ16" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="BK16" s="1" t="s">
         <v>3363</v>
       </c>
-      <c r="BJ16" s="1" t="s">
-        <v>3125</v>
-      </c>
-      <c r="BK16" s="1" t="s">
-        <v>3364</v>
-      </c>
       <c r="BL16" s="1" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="BM16" s="1" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.2">
@@ -14648,7 +14645,7 @@
         <v>313</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>854</v>
@@ -14663,7 +14660,7 @@
         <v>520</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>600</v>
@@ -14672,10 +14669,10 @@
         <v>665</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>747</v>
@@ -14756,7 +14753,7 @@
         <v>2280</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="AU17" s="1" t="s">
         <v>2347</v>
@@ -14783,7 +14780,7 @@
         <v>2729</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="BD17" s="1" t="s">
         <v>2844</v>
@@ -14792,28 +14789,28 @@
         <v>2906</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="BG17" s="1" t="s">
         <v>3021</v>
       </c>
       <c r="BH17" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="BI17" s="1" t="s">
         <v>3367</v>
       </c>
-      <c r="BI17" s="1" t="s">
+      <c r="BJ17" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="BK17" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="BJ17" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="BK17" s="1" t="s">
-        <v>3369</v>
-      </c>
       <c r="BL17" s="1" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.2">
@@ -14833,7 +14830,7 @@
         <v>310</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>851</v>
@@ -14848,7 +14845,7 @@
         <v>517</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>597</v>
@@ -14857,10 +14854,10 @@
         <v>662</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>744</v>
@@ -14941,7 +14938,7 @@
         <v>2277</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="AU18" s="1" t="s">
         <v>2344</v>
@@ -14968,7 +14965,7 @@
         <v>2726</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="BD18" s="1" t="s">
         <v>2841</v>
@@ -14983,27 +14980,27 @@
         <v>3018</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="BJ18" s="1" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="BK18" s="1" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -15018,7 +15015,7 @@
         <v>280</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>821</v>
@@ -15030,10 +15027,10 @@
         <v>453</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>565</v>
@@ -15042,10 +15039,10 @@
         <v>630</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>695</v>
@@ -15137,7 +15134,7 @@
         <v>2296</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="AV19" s="1" t="s">
         <v>2361</v>
@@ -15182,21 +15179,21 @@
         <v>355</v>
       </c>
       <c r="BJ19" s="1" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="BK19" s="1" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -15211,7 +15208,7 @@
         <v>279</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>820</v>
@@ -15223,10 +15220,10 @@
         <v>452</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>564</v>
@@ -15235,10 +15232,10 @@
         <v>629</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>694</v>
@@ -15330,7 +15327,7 @@
         <v>2295</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="AV20" s="1" t="s">
         <v>2360</v>
@@ -15375,21 +15372,21 @@
         <v>354</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="BK20" s="1" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -15404,7 +15401,7 @@
         <v>282</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>823</v>
@@ -15416,10 +15413,10 @@
         <v>455</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>567</v>
@@ -15428,10 +15425,10 @@
         <v>632</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>697</v>
@@ -15523,7 +15520,7 @@
         <v>2298</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="AV21" s="1" t="s">
         <v>2363</v>
@@ -15568,21 +15565,21 @@
         <v>357</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="BK21" s="1" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -15597,7 +15594,7 @@
         <v>281</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>822</v>
@@ -15609,10 +15606,10 @@
         <v>454</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>566</v>
@@ -15621,10 +15618,10 @@
         <v>631</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>696</v>
@@ -15716,7 +15713,7 @@
         <v>2297</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="AV22" s="1" t="s">
         <v>2362</v>
@@ -15761,21 +15758,21 @@
         <v>356</v>
       </c>
       <c r="BJ22" s="1" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="BK22" s="1" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="BM22" s="1" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -15790,7 +15787,7 @@
         <v>283</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>824</v>
@@ -15802,10 +15799,10 @@
         <v>456</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>568</v>
@@ -15814,10 +15811,10 @@
         <v>633</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>698</v>
@@ -15909,7 +15906,7 @@
         <v>2299</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>2364</v>
@@ -15954,21 +15951,21 @@
         <v>358</v>
       </c>
       <c r="BJ23" s="1" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="BK23" s="1" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="BM23" s="1" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
@@ -15983,7 +15980,7 @@
         <v>284</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>825</v>
@@ -15995,10 +15992,10 @@
         <v>446</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>569</v>
@@ -16007,10 +16004,10 @@
         <v>634</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>699</v>
@@ -16102,7 +16099,7 @@
         <v>2289</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="AV24" s="1" t="s">
         <v>2365</v>
@@ -16147,16 +16144,16 @@
         <v>348</v>
       </c>
       <c r="BJ24" s="1" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="BK24" s="1" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="BM24" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.2">
@@ -16176,7 +16173,7 @@
         <v>274</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>815</v>
@@ -16188,7 +16185,7 @@
         <v>448</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>533</v>
@@ -16200,10 +16197,10 @@
         <v>626</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>691</v>
@@ -16297,7 +16294,7 @@
         <v>2291</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="AV25" s="1" t="s">
         <v>2357</v>
@@ -16342,16 +16339,16 @@
         <v>350</v>
       </c>
       <c r="BJ25" s="1" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="BK25" s="1" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.2">
@@ -16371,7 +16368,7 @@
         <v>273</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>814</v>
@@ -16383,7 +16380,7 @@
         <v>447</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>532</v>
@@ -16395,10 +16392,10 @@
         <v>625</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>690</v>
@@ -16492,7 +16489,7 @@
         <v>2290</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="AV26" s="1" t="s">
         <v>2356</v>
@@ -16537,16 +16534,16 @@
         <v>349</v>
       </c>
       <c r="BJ26" s="1" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="BK26" s="1" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="BM26" s="1" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.2">
@@ -16566,7 +16563,7 @@
         <v>275</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>816</v>
@@ -16578,7 +16575,7 @@
         <v>449</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>534</v>
@@ -16590,10 +16587,10 @@
         <v>635</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>700</v>
@@ -16687,7 +16684,7 @@
         <v>2292</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="AV27" s="1" t="s">
         <v>2366</v>
@@ -16732,16 +16729,16 @@
         <v>351</v>
       </c>
       <c r="BJ27" s="1" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="BK27" s="1" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="BM27" s="1" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.2">
@@ -16761,7 +16758,7 @@
         <v>276</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>817</v>
@@ -16773,7 +16770,7 @@
         <v>450</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>535</v>
@@ -16785,10 +16782,10 @@
         <v>627</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>692</v>
@@ -16882,7 +16879,7 @@
         <v>2293</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="AV28" s="1" t="s">
         <v>2358</v>
@@ -16927,16 +16924,16 @@
         <v>352</v>
       </c>
       <c r="BJ28" s="1" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="BK28" s="1" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="BM28" s="1" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
@@ -16956,7 +16953,7 @@
         <v>278</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>819</v>
@@ -16968,7 +16965,7 @@
         <v>451</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>537</v>
@@ -16980,10 +16977,10 @@
         <v>628</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>693</v>
@@ -17077,7 +17074,7 @@
         <v>2294</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="AV29" s="1" t="s">
         <v>2359</v>
@@ -17122,16 +17119,16 @@
         <v>353</v>
       </c>
       <c r="BJ29" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="BK29" s="1" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="BM29" s="1" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.2">
@@ -17151,7 +17148,7 @@
         <v>277</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>818</v>
@@ -17163,7 +17160,7 @@
         <v>457</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>536</v>
@@ -17175,10 +17172,10 @@
         <v>636</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>701</v>
@@ -17272,7 +17269,7 @@
         <v>2300</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="AV30" s="1" t="s">
         <v>2367</v>
@@ -17317,16 +17314,16 @@
         <v>359</v>
       </c>
       <c r="BJ30" s="1" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="BK30" s="1" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="BM30" s="1" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.2">
@@ -17346,7 +17343,7 @@
         <v>318</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>859</v>
@@ -17370,10 +17367,10 @@
         <v>670</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>725</v>
@@ -17459,7 +17456,7 @@
         <v>2324</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="AV31" s="1" t="s">
         <v>2392</v>
@@ -17504,16 +17501,16 @@
         <v>426</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="BK31" s="1" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="BM31" s="1" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.2">
@@ -17533,7 +17530,7 @@
         <v>291</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>832</v>
@@ -17557,10 +17554,10 @@
         <v>644</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>702</v>
@@ -17646,7 +17643,7 @@
         <v>2301</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="AV32" s="1" t="s">
         <v>2368</v>
@@ -17691,16 +17688,16 @@
         <v>383</v>
       </c>
       <c r="BJ32" s="1" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="BK32" s="1" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="BM32" s="1" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.2">
@@ -17720,7 +17717,7 @@
         <v>287</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>828</v>
@@ -17735,7 +17732,7 @@
         <v>511</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>574</v>
@@ -17744,10 +17741,10 @@
         <v>639</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>720</v>
@@ -17828,7 +17825,7 @@
         <v>2253</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="AU33" s="1" t="s">
         <v>2318</v>
@@ -17855,7 +17852,7 @@
         <v>2702</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="BD33" s="1" t="s">
         <v>2816</v>
@@ -17864,28 +17861,28 @@
         <v>2879</v>
       </c>
       <c r="BF33" s="1" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="BG33" s="1" t="s">
         <v>2994</v>
       </c>
       <c r="BH33" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="BI33" s="1" t="s">
         <v>3372</v>
       </c>
-      <c r="BI33" s="1" t="s">
+      <c r="BJ33" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="BK33" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="BJ33" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="BK33" s="1" t="s">
-        <v>3374</v>
-      </c>
       <c r="BL33" s="1" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="BM33" s="1" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="34" spans="1:65" x14ac:dyDescent="0.2">
@@ -17905,7 +17902,7 @@
         <v>286</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>827</v>
@@ -17920,7 +17917,7 @@
         <v>510</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>573</v>
@@ -17929,10 +17926,10 @@
         <v>638</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>719</v>
@@ -18013,7 +18010,7 @@
         <v>2252</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="AU34" s="1" t="s">
         <v>2317</v>
@@ -18040,7 +18037,7 @@
         <v>2701</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="BD34" s="1" t="s">
         <v>2815</v>
@@ -18049,28 +18046,28 @@
         <v>2878</v>
       </c>
       <c r="BF34" s="1" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="BG34" s="1" t="s">
         <v>2993</v>
       </c>
       <c r="BH34" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="BI34" s="1" t="s">
         <v>3377</v>
       </c>
-      <c r="BI34" s="1" t="s">
+      <c r="BJ34" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="BK34" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="BJ34" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="BK34" s="1" t="s">
-        <v>3379</v>
-      </c>
       <c r="BL34" s="1" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="BM34" s="1" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="35" spans="1:65" x14ac:dyDescent="0.2">
@@ -18090,7 +18087,7 @@
         <v>290</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>831</v>
@@ -18105,7 +18102,7 @@
         <v>514</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>577</v>
@@ -18114,10 +18111,10 @@
         <v>642</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>723</v>
@@ -18198,7 +18195,7 @@
         <v>2256</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="AU35" s="1" t="s">
         <v>2321</v>
@@ -18225,7 +18222,7 @@
         <v>2705</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="BD35" s="1" t="s">
         <v>2819</v>
@@ -18234,28 +18231,28 @@
         <v>2882</v>
       </c>
       <c r="BF35" s="1" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="BG35" s="1" t="s">
         <v>2997</v>
       </c>
       <c r="BH35" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="BI35" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="BI35" s="1" t="s">
+      <c r="BJ35" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="BK35" s="1" t="s">
         <v>3383</v>
       </c>
-      <c r="BJ35" s="1" t="s">
-        <v>3101</v>
-      </c>
-      <c r="BK35" s="1" t="s">
-        <v>3384</v>
-      </c>
       <c r="BL35" s="1" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="BM35" s="1" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="36" spans="1:65" x14ac:dyDescent="0.2">
@@ -18275,7 +18272,7 @@
         <v>289</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>830</v>
@@ -18290,7 +18287,7 @@
         <v>513</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>576</v>
@@ -18299,10 +18296,10 @@
         <v>641</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>722</v>
@@ -18383,7 +18380,7 @@
         <v>2255</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="AU36" s="1" t="s">
         <v>2320</v>
@@ -18410,7 +18407,7 @@
         <v>2704</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="BD36" s="1" t="s">
         <v>2818</v>
@@ -18419,28 +18416,28 @@
         <v>2881</v>
       </c>
       <c r="BF36" s="1" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="BG36" s="1" t="s">
         <v>2996</v>
       </c>
       <c r="BH36" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="BI36" s="1" t="s">
         <v>3387</v>
       </c>
-      <c r="BI36" s="1" t="s">
+      <c r="BJ36" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="BK36" s="1" t="s">
         <v>3388</v>
       </c>
-      <c r="BJ36" s="1" t="s">
-        <v>3100</v>
-      </c>
-      <c r="BK36" s="1" t="s">
-        <v>3389</v>
-      </c>
       <c r="BL36" s="1" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="BM36" s="1" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="37" spans="1:65" x14ac:dyDescent="0.2">
@@ -18460,7 +18457,7 @@
         <v>288</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>829</v>
@@ -18475,7 +18472,7 @@
         <v>512</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>575</v>
@@ -18484,10 +18481,10 @@
         <v>640</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>721</v>
@@ -18568,7 +18565,7 @@
         <v>2254</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="AU37" s="1" t="s">
         <v>2319</v>
@@ -18595,7 +18592,7 @@
         <v>2703</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="BD37" s="1" t="s">
         <v>2817</v>
@@ -18604,28 +18601,28 @@
         <v>2880</v>
       </c>
       <c r="BF37" s="1" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="BG37" s="1" t="s">
         <v>2995</v>
       </c>
       <c r="BH37" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="BI37" s="1" t="s">
         <v>3392</v>
       </c>
-      <c r="BI37" s="1" t="s">
+      <c r="BJ37" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="BK37" s="1" t="s">
         <v>3393</v>
       </c>
-      <c r="BJ37" s="1" t="s">
-        <v>3099</v>
-      </c>
-      <c r="BK37" s="1" t="s">
-        <v>3394</v>
-      </c>
       <c r="BL37" s="1" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="BM37" s="1" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="38" spans="1:65" x14ac:dyDescent="0.2">
@@ -18645,7 +18642,7 @@
         <v>285</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>826</v>
@@ -18660,7 +18657,7 @@
         <v>509</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>572</v>
@@ -18669,10 +18666,10 @@
         <v>637</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>718</v>
@@ -18753,7 +18750,7 @@
         <v>2251</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="AU38" s="1" t="s">
         <v>2316</v>
@@ -18780,7 +18777,7 @@
         <v>2700</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="BD38" s="1" t="s">
         <v>2814</v>
@@ -18798,120 +18795,120 @@
         <v>3057</v>
       </c>
       <c r="BI38" s="1" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="BJ38" s="1" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="BK38" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="BM38" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="39" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1" t="s">
         <v>1844</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL39" s="1" t="s">
         <v>1891</v>
@@ -18920,183 +18917,183 @@
         <v>138</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM39" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="40" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1" t="s">
         <v>1843</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL40" s="1" t="s">
         <v>1890</v>
@@ -19105,183 +19102,183 @@
         <v>135</v>
       </c>
       <c r="AN40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM40" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="41" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1" t="s">
         <v>1846</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL41" s="1" t="s">
         <v>1893</v>
@@ -19290,183 +19287,183 @@
         <v>139</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM41" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="42" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1" t="s">
         <v>1845</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL42" s="1" t="s">
         <v>1892</v>
@@ -19475,183 +19472,183 @@
         <v>136</v>
       </c>
       <c r="AN42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM42" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="43" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1" t="s">
         <v>1847</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL43" s="1" t="s">
         <v>1894</v>
@@ -19660,183 +19657,183 @@
         <v>140</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM43" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="44" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1" t="s">
         <v>1848</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL44" s="1" t="s">
         <v>1884</v>
@@ -19845,82 +19842,82 @@
         <v>137</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM44" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="45" spans="1:65" x14ac:dyDescent="0.2">
@@ -19928,104 +19925,104 @@
         <v>1864</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1" t="s">
         <v>1838</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL45" s="1" t="s">
         <v>1886</v>
@@ -20034,82 +20031,82 @@
         <v>132</v>
       </c>
       <c r="AN45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM45" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="46" spans="1:65" x14ac:dyDescent="0.2">
@@ -20117,104 +20114,104 @@
         <v>1865</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1" t="s">
         <v>1837</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL46" s="1" t="s">
         <v>1885</v>
@@ -20223,82 +20220,82 @@
         <v>130</v>
       </c>
       <c r="AN46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM46" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="47" spans="1:65" x14ac:dyDescent="0.2">
@@ -20306,104 +20303,104 @@
         <v>1866</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1" t="s">
         <v>1839</v>
       </c>
       <c r="AK47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL47" s="1" t="s">
         <v>1887</v>
@@ -20412,82 +20409,82 @@
         <v>133</v>
       </c>
       <c r="AN47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM47" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="48" spans="1:65" x14ac:dyDescent="0.2">
@@ -20495,104 +20492,104 @@
         <v>1867</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1" t="s">
         <v>1840</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL48" s="1" t="s">
         <v>1888</v>
@@ -20601,82 +20598,82 @@
         <v>131</v>
       </c>
       <c r="AN48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM48" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="49" spans="1:65" x14ac:dyDescent="0.2">
@@ -20684,104 +20681,104 @@
         <v>1868</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1" t="s">
         <v>1842</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL49" s="1" t="s">
         <v>1889</v>
@@ -20790,82 +20787,82 @@
         <v>134</v>
       </c>
       <c r="AN49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM49" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="50" spans="1:65" x14ac:dyDescent="0.2">
@@ -20873,104 +20870,104 @@
         <v>1869</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1" t="s">
         <v>1841</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AL50" s="1" t="s">
         <v>1895</v>
@@ -20979,82 +20976,82 @@
         <v>1923</v>
       </c>
       <c r="AN50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AO50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AP50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AQ50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AR50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AS50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AV50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AW50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AX50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AY50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AZ50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BA50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BB50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BC50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BD50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BE50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BF50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BH50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BI50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BJ50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BK50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BL50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="BM50" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="51" spans="1:65" x14ac:dyDescent="0.2">
@@ -21074,7 +21071,7 @@
         <v>293</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>834</v>
@@ -21098,10 +21095,10 @@
         <v>645</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>703</v>
@@ -21187,7 +21184,7 @@
         <v>2302</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="AV51" s="1" t="s">
         <v>2369</v>
@@ -21232,21 +21229,21 @@
         <v>384</v>
       </c>
       <c r="BJ51" s="1" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="BK51" s="1" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="BL51" s="1" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="BM51" s="1" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="52" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>33</v>
@@ -21261,7 +21258,7 @@
         <v>306</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>847</v>
@@ -21273,10 +21270,10 @@
         <v>464</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>578</v>
@@ -21285,10 +21282,10 @@
         <v>643</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>724</v>
@@ -21369,7 +21366,7 @@
         <v>2257</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="AU52" s="1" t="s">
         <v>2322</v>
@@ -21417,16 +21414,16 @@
         <v>398</v>
       </c>
       <c r="BJ52" s="1" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="BK52" s="1" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="BL52" s="1" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="BM52" s="1" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="53" spans="1:65" x14ac:dyDescent="0.2">
@@ -21446,7 +21443,7 @@
         <v>292</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>833</v>
@@ -21470,10 +21467,10 @@
         <v>646</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>704</v>
@@ -21559,7 +21556,7 @@
         <v>2303</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="AV53" s="1" t="s">
         <v>2370</v>
@@ -21604,16 +21601,16 @@
         <v>385</v>
       </c>
       <c r="BJ53" s="1" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="BK53" s="1" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="BL53" s="1" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="BM53" s="1" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="54" spans="1:65" x14ac:dyDescent="0.2">
@@ -21633,7 +21630,7 @@
         <v>307</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>848</v>
@@ -21645,10 +21642,10 @@
         <v>465</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>594</v>
@@ -21660,7 +21657,7 @@
         <v>903</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>717</v>
@@ -21686,7 +21683,7 @@
         <v>1223</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>1365</v>
@@ -21737,7 +21734,7 @@
         <v>2258</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="AU54" s="1" t="s">
         <v>2323</v>
@@ -21785,21 +21782,21 @@
         <v>399</v>
       </c>
       <c r="BJ54" s="1" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="BK54" s="1" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="BL54" s="1" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="BM54" s="1" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="55" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
@@ -21814,7 +21811,7 @@
         <v>301</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>842</v>
@@ -21826,10 +21823,10 @@
         <v>476</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>587</v>
@@ -21838,10 +21835,10 @@
         <v>652</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>710</v>
@@ -21864,7 +21861,7 @@
         <v>1164</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>1269</v>
@@ -21929,7 +21926,7 @@
         <v>2311</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="AV55" s="1" t="s">
         <v>2376</v>
@@ -21974,21 +21971,21 @@
         <v>393</v>
       </c>
       <c r="BJ55" s="1" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="BK55" s="1" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="BL55" s="1" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="BM55" s="1" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="56" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>25</v>
@@ -22003,7 +22000,7 @@
         <v>300</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>841</v>
@@ -22015,10 +22012,10 @@
         <v>475</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>586</v>
@@ -22027,10 +22024,10 @@
         <v>651</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>709</v>
@@ -22053,7 +22050,7 @@
         <v>1163</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>1268</v>
@@ -22118,7 +22115,7 @@
         <v>2310</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="AV56" s="1" t="s">
         <v>2375</v>
@@ -22163,21 +22160,21 @@
         <v>392</v>
       </c>
       <c r="BJ56" s="1" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="BK56" s="1" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="BM56" s="1" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="57" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>28</v>
@@ -22192,7 +22189,7 @@
         <v>303</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>844</v>
@@ -22204,10 +22201,10 @@
         <v>478</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>589</v>
@@ -22216,10 +22213,10 @@
         <v>654</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>712</v>
@@ -22242,7 +22239,7 @@
         <v>1166</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>1271</v>
@@ -22307,7 +22304,7 @@
         <v>2313</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="AV57" s="1" t="s">
         <v>2378</v>
@@ -22352,21 +22349,21 @@
         <v>395</v>
       </c>
       <c r="BJ57" s="1" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="BK57" s="1" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="BL57" s="1" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="BM57" s="1" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="58" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>27</v>
@@ -22381,7 +22378,7 @@
         <v>302</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>843</v>
@@ -22393,10 +22390,10 @@
         <v>477</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>588</v>
@@ -22405,10 +22402,10 @@
         <v>653</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>711</v>
@@ -22431,7 +22428,7 @@
         <v>1165</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>1270</v>
@@ -22496,7 +22493,7 @@
         <v>2312</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="AV58" s="1" t="s">
         <v>2377</v>
@@ -22541,21 +22538,21 @@
         <v>394</v>
       </c>
       <c r="BJ58" s="1" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="BK58" s="1" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="BL58" s="1" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="BM58" s="1" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="59" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>29</v>
@@ -22570,7 +22567,7 @@
         <v>304</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>845</v>
@@ -22582,10 +22579,10 @@
         <v>479</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>590</v>
@@ -22594,10 +22591,10 @@
         <v>655</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>713</v>
@@ -22620,7 +22617,7 @@
         <v>1167</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>1272</v>
@@ -22685,7 +22682,7 @@
         <v>2314</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="AV59" s="1" t="s">
         <v>2379</v>
@@ -22730,21 +22727,21 @@
         <v>396</v>
       </c>
       <c r="BJ59" s="1" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="BK59" s="1" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="BL59" s="1" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="BM59" s="1" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="60" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>30</v>
@@ -22759,7 +22756,7 @@
         <v>305</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>846</v>
@@ -22771,10 +22768,10 @@
         <v>469</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>591</v>
@@ -22783,10 +22780,10 @@
         <v>656</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>714</v>
@@ -22809,7 +22806,7 @@
         <v>1157</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>1273</v>
@@ -22874,7 +22871,7 @@
         <v>2304</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="AV60" s="1" t="s">
         <v>2380</v>
@@ -22919,16 +22916,16 @@
         <v>386</v>
       </c>
       <c r="BJ60" s="1" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="BK60" s="1" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="BL60" s="1" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="BM60" s="1" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="61" spans="1:65" x14ac:dyDescent="0.2">
@@ -22948,7 +22945,7 @@
         <v>295</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>836</v>
@@ -22960,10 +22957,10 @@
         <v>471</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>583</v>
@@ -22972,10 +22969,10 @@
         <v>648</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>706</v>
@@ -23063,7 +23060,7 @@
         <v>2306</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="AV61" s="1" t="s">
         <v>2372</v>
@@ -23108,16 +23105,16 @@
         <v>388</v>
       </c>
       <c r="BJ61" s="1" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="BK61" s="1" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="BL61" s="1" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="BM61" s="1" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="62" spans="1:65" x14ac:dyDescent="0.2">
@@ -23137,7 +23134,7 @@
         <v>294</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>835</v>
@@ -23149,10 +23146,10 @@
         <v>470</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>582</v>
@@ -23161,10 +23158,10 @@
         <v>647</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>705</v>
@@ -23252,7 +23249,7 @@
         <v>2305</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="AV62" s="1" t="s">
         <v>2371</v>
@@ -23297,16 +23294,16 @@
         <v>387</v>
       </c>
       <c r="BJ62" s="1" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="BK62" s="1" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="BL62" s="1" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="BM62" s="1" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="63" spans="1:65" x14ac:dyDescent="0.2">
@@ -23326,7 +23323,7 @@
         <v>296</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>837</v>
@@ -23338,10 +23335,10 @@
         <v>472</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>592</v>
@@ -23350,10 +23347,10 @@
         <v>657</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>715</v>
@@ -23441,7 +23438,7 @@
         <v>2307</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="AV63" s="1" t="s">
         <v>2381</v>
@@ -23486,16 +23483,16 @@
         <v>389</v>
       </c>
       <c r="BJ63" s="1" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="BK63" s="1" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="BL63" s="1" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="BM63" s="1" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="64" spans="1:65" x14ac:dyDescent="0.2">
@@ -23515,7 +23512,7 @@
         <v>297</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>838</v>
@@ -23527,10 +23524,10 @@
         <v>473</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>584</v>
@@ -23539,10 +23536,10 @@
         <v>649</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>707</v>
@@ -23630,7 +23627,7 @@
         <v>2308</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="AV64" s="1" t="s">
         <v>2373</v>
@@ -23675,16 +23672,16 @@
         <v>390</v>
       </c>
       <c r="BJ64" s="1" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="BK64" s="1" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="BL64" s="1" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="BM64" s="1" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="65" spans="1:65" x14ac:dyDescent="0.2">
@@ -23704,7 +23701,7 @@
         <v>299</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>840</v>
@@ -23716,10 +23713,10 @@
         <v>474</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>585</v>
@@ -23728,10 +23725,10 @@
         <v>650</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>708</v>
@@ -23819,7 +23816,7 @@
         <v>2309</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="AV65" s="1" t="s">
         <v>2374</v>
@@ -23864,16 +23861,16 @@
         <v>391</v>
       </c>
       <c r="BJ65" s="1" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="BK65" s="1" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="BL65" s="1" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="BM65" s="1" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="66" spans="1:65" x14ac:dyDescent="0.2">
@@ -23893,7 +23890,7 @@
         <v>298</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>839</v>
@@ -23905,10 +23902,10 @@
         <v>480</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>593</v>
@@ -23917,10 +23914,10 @@
         <v>658</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>716</v>
@@ -24008,7 +24005,7 @@
         <v>2315</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="AV66" s="1" t="s">
         <v>2382</v>
@@ -24053,16 +24050,16 @@
         <v>397</v>
       </c>
       <c r="BJ66" s="1" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="BK66" s="1" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="BL66" s="1" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="BM66" s="1" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="67" spans="1:65" x14ac:dyDescent="0.2">
@@ -24082,7 +24079,7 @@
         <v>308</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>849</v>
@@ -24097,7 +24094,7 @@
         <v>516</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>608</v>
@@ -24109,7 +24106,7 @@
         <v>911</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>741</v>
@@ -24191,7 +24188,7 @@
         <v>2327</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="AV67" s="1" t="s">
         <v>2399</v>
@@ -24236,16 +24233,16 @@
         <v>429</v>
       </c>
       <c r="BJ67" s="1" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="BK67" s="1" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="BL67" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="BM67" s="1" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="68" spans="1:65" x14ac:dyDescent="0.2">
@@ -24265,7 +24262,7 @@
         <v>332</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>873</v>
@@ -24277,10 +24274,10 @@
         <v>489</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>603</v>
@@ -24289,10 +24286,10 @@
         <v>668</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>750</v>
@@ -24373,7 +24370,7 @@
         <v>2283</v>
       </c>
       <c r="AT68" s="1" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="AU68" s="1" t="s">
         <v>2350</v>
@@ -24415,22 +24412,22 @@
         <v>3024</v>
       </c>
       <c r="BH68" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="BI68" s="1" t="s">
         <v>442</v>
       </c>
       <c r="BJ68" s="1" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="BK68" s="1" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="BL68" s="1" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="BM68" s="1" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="69" spans="1:65" x14ac:dyDescent="0.2">
@@ -24450,7 +24447,7 @@
         <v>319</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>860</v>
@@ -24465,7 +24462,7 @@
         <v>516</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>608</v>
@@ -24477,7 +24474,7 @@
         <v>911</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>741</v>
@@ -24563,7 +24560,7 @@
         <v>2327</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="AV69" s="1" t="s">
         <v>2399</v>
@@ -24608,16 +24605,16 @@
         <v>429</v>
       </c>
       <c r="BJ69" s="1" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="BK69" s="1" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="BL69" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="BM69" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="70" spans="1:65" x14ac:dyDescent="0.2">
@@ -24637,7 +24634,7 @@
         <v>322</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>863</v>
@@ -24661,10 +24658,10 @@
         <v>684</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -24736,7 +24733,7 @@
         <v>2340</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="AV70" s="1" t="s">
         <v>2406</v>
@@ -24775,22 +24772,22 @@
         <v>3006</v>
       </c>
       <c r="BH70" s="1" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="BI70" s="1" t="s">
         <v>432</v>
       </c>
       <c r="BJ70" s="1" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="BK70" s="1" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="BL70" s="1" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="BM70" s="1" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="71" spans="1:65" x14ac:dyDescent="0.2">
@@ -24810,7 +24807,7 @@
         <v>319</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>860</v>
@@ -24837,7 +24834,7 @@
         <v>911</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -24909,7 +24906,7 @@
         <v>2339</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="AV71" s="1" t="s">
         <v>2399</v>
@@ -24948,22 +24945,22 @@
         <v>3003</v>
       </c>
       <c r="BH71" s="1" t="s">
-        <v>3076</v>
+        <v>3062</v>
       </c>
       <c r="BI71" s="1" t="s">
         <v>429</v>
       </c>
       <c r="BJ71" s="1" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="BK71" s="1" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="BL71" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="BM71" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="72" spans="1:65" x14ac:dyDescent="0.2">
@@ -24983,7 +24980,7 @@
         <v>317</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>858</v>
@@ -25007,10 +25004,10 @@
         <v>672</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>727</v>
@@ -25096,7 +25093,7 @@
         <v>2326</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="AV72" s="1" t="s">
         <v>2394</v>
@@ -25141,16 +25138,16 @@
         <v>428</v>
       </c>
       <c r="BJ72" s="1" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="BK72" s="1" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="BL72" s="1" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="BM72" s="1" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="73" spans="1:65" x14ac:dyDescent="0.2">
@@ -25170,7 +25167,7 @@
         <v>333</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>874</v>
@@ -25182,10 +25179,10 @@
         <v>490</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>621</v>
@@ -25197,7 +25194,7 @@
         <v>928</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>740</v>
@@ -25223,7 +25220,7 @@
         <v>1237</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>1404</v>
@@ -25274,7 +25271,7 @@
         <v>2284</v>
       </c>
       <c r="AT73" s="1" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="AU73" s="1" t="s">
         <v>2351</v>
@@ -25322,21 +25319,21 @@
         <v>443</v>
       </c>
       <c r="BJ73" s="1" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="BK73" s="1" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="BL73" s="1" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="BM73" s="1" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="74" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>53</v>
@@ -25351,7 +25348,7 @@
         <v>327</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>868</v>
@@ -25363,10 +25360,10 @@
         <v>502</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>614</v>
@@ -25375,10 +25372,10 @@
         <v>679</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>733</v>
@@ -25401,7 +25398,7 @@
         <v>1192</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="Y74" s="1" t="s">
         <v>1292</v>
@@ -25466,7 +25463,7 @@
         <v>2334</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="AV74" s="1" t="s">
         <v>2401</v>
@@ -25511,21 +25508,21 @@
         <v>436</v>
       </c>
       <c r="BJ74" s="1" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="BK74" s="1" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="BL74" s="1" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="BM74" s="1" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="75" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>52</v>
@@ -25540,7 +25537,7 @@
         <v>326</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>867</v>
@@ -25552,10 +25549,10 @@
         <v>501</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>613</v>
@@ -25564,10 +25561,10 @@
         <v>678</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>732</v>
@@ -25590,7 +25587,7 @@
         <v>1191</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="Y75" s="1" t="s">
         <v>1291</v>
@@ -25655,7 +25652,7 @@
         <v>2333</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="AV75" s="1" t="s">
         <v>2400</v>
@@ -25700,21 +25697,21 @@
         <v>435</v>
       </c>
       <c r="BJ75" s="1" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="BK75" s="1" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="BL75" s="1" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="BM75" s="1" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="76" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>55</v>
@@ -25729,7 +25726,7 @@
         <v>329</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>870</v>
@@ -25741,10 +25738,10 @@
         <v>504</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>616</v>
@@ -25753,10 +25750,10 @@
         <v>681</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>735</v>
@@ -25779,7 +25776,7 @@
         <v>1194</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="Y76" s="1" t="s">
         <v>1294</v>
@@ -25844,7 +25841,7 @@
         <v>2336</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="AV76" s="1" t="s">
         <v>2403</v>
@@ -25889,21 +25886,21 @@
         <v>438</v>
       </c>
       <c r="BJ76" s="1" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="BK76" s="1" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="BL76" s="1" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="BM76" s="1" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="77" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>56</v>
@@ -25918,7 +25915,7 @@
         <v>330</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>871</v>
@@ -25930,10 +25927,10 @@
         <v>505</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>617</v>
@@ -25942,10 +25939,10 @@
         <v>682</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>736</v>
@@ -25968,7 +25965,7 @@
         <v>1195</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="Y77" s="1" t="s">
         <v>1295</v>
@@ -26033,7 +26030,7 @@
         <v>2337</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="AV77" s="1" t="s">
         <v>2404</v>
@@ -26078,21 +26075,21 @@
         <v>439</v>
       </c>
       <c r="BJ77" s="1" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="BK77" s="1" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="BL77" s="1" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="BM77" s="1" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="78" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>54</v>
@@ -26107,7 +26104,7 @@
         <v>328</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>869</v>
@@ -26119,10 +26116,10 @@
         <v>503</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>615</v>
@@ -26131,10 +26128,10 @@
         <v>680</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>734</v>
@@ -26157,7 +26154,7 @@
         <v>1193</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="Y78" s="1" t="s">
         <v>1293</v>
@@ -26222,7 +26219,7 @@
         <v>2335</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="AV78" s="1" t="s">
         <v>2402</v>
@@ -26267,21 +26264,21 @@
         <v>437</v>
       </c>
       <c r="BJ78" s="1" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="BK78" s="1" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="BL78" s="1" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="BM78" s="1" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="79" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>57</v>
@@ -26296,7 +26293,7 @@
         <v>331</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>872</v>
@@ -26308,10 +26305,10 @@
         <v>495</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>618</v>
@@ -26320,10 +26317,10 @@
         <v>683</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>737</v>
@@ -26346,7 +26343,7 @@
         <v>1185</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="Y79" s="1" t="s">
         <v>1296</v>
@@ -26411,7 +26408,7 @@
         <v>2327</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="AV79" s="1" t="s">
         <v>2405</v>
@@ -26456,16 +26453,16 @@
         <v>429</v>
       </c>
       <c r="BJ79" s="1" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="BK79" s="1" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="BL79" s="1" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="BM79" s="1" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="80" spans="1:65" x14ac:dyDescent="0.2">
@@ -26485,7 +26482,7 @@
         <v>321</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>862</v>
@@ -26497,10 +26494,10 @@
         <v>497</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>610</v>
@@ -26509,10 +26506,10 @@
         <v>675</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>729</v>
@@ -26600,7 +26597,7 @@
         <v>2329</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="AV80" s="1" t="s">
         <v>2396</v>
@@ -26645,16 +26642,16 @@
         <v>431</v>
       </c>
       <c r="BJ80" s="1" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="BK80" s="1" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="BL80" s="1" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="BM80" s="1" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="81" spans="1:65" x14ac:dyDescent="0.2">
@@ -26674,7 +26671,7 @@
         <v>320</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>861</v>
@@ -26686,10 +26683,10 @@
         <v>496</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>609</v>
@@ -26698,10 +26695,10 @@
         <v>674</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>728</v>
@@ -26789,7 +26786,7 @@
         <v>2328</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="AV81" s="1" t="s">
         <v>2395</v>
@@ -26834,16 +26831,16 @@
         <v>430</v>
       </c>
       <c r="BJ81" s="1" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="BK81" s="1" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="BL81" s="1" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="BM81" s="1" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="82" spans="1:65" x14ac:dyDescent="0.2">
@@ -26863,7 +26860,7 @@
         <v>322</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>863</v>
@@ -26875,10 +26872,10 @@
         <v>498</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>619</v>
@@ -26887,10 +26884,10 @@
         <v>684</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>738</v>
@@ -26978,7 +26975,7 @@
         <v>2330</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="AV82" s="1" t="s">
         <v>2406</v>
@@ -27023,16 +27020,16 @@
         <v>432</v>
       </c>
       <c r="BJ82" s="1" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="BK82" s="1" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="BL82" s="1" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="BM82" s="1" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="83" spans="1:65" x14ac:dyDescent="0.2">
@@ -27052,7 +27049,7 @@
         <v>323</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>864</v>
@@ -27064,10 +27061,10 @@
         <v>499</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>611</v>
@@ -27076,10 +27073,10 @@
         <v>676</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>730</v>
@@ -27167,7 +27164,7 @@
         <v>2331</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="AV83" s="1" t="s">
         <v>2397</v>
@@ -27212,16 +27209,16 @@
         <v>433</v>
       </c>
       <c r="BJ83" s="1" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="BK83" s="1" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="BL83" s="1" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="BM83" s="1" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="84" spans="1:65" x14ac:dyDescent="0.2">
@@ -27241,7 +27238,7 @@
         <v>325</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>866</v>
@@ -27253,10 +27250,10 @@
         <v>500</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>612</v>
@@ -27265,10 +27262,10 @@
         <v>677</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>731</v>
@@ -27356,7 +27353,7 @@
         <v>2332</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="AV84" s="1" t="s">
         <v>2398</v>
@@ -27401,16 +27398,16 @@
         <v>434</v>
       </c>
       <c r="BJ84" s="1" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="BK84" s="1" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="BL84" s="1" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="BM84" s="1" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="85" spans="1:65" x14ac:dyDescent="0.2">
@@ -27430,7 +27427,7 @@
         <v>324</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>865</v>
@@ -27442,10 +27439,10 @@
         <v>506</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>620</v>
@@ -27454,10 +27451,10 @@
         <v>685</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>739</v>
@@ -27545,7 +27542,7 @@
         <v>2338</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="AV85" s="1" t="s">
         <v>2407</v>
@@ -27590,16 +27587,16 @@
         <v>440</v>
       </c>
       <c r="BJ85" s="1" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="BK85" s="1" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="BL85" s="1" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="BM85" s="1" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="86" spans="1:65" x14ac:dyDescent="0.2">
@@ -27631,10 +27628,10 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
